--- a/VersionRecords/Version 5.0.4.1 20161027/版本Bug和特性计划及评审表v5.0.4.1_马丁组.xlsx
+++ b/VersionRecords/Version 5.0.4.1 20161027/版本Bug和特性计划及评审表v5.0.4.1_马丁组.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitDoc\Mogo_Doc\VersionRecords\Version 5.0.4.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitDoc\Mogo_Doc\VersionRecords\Version 5.0.4.1 20161027\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>通过</t>
-  </si>
-  <si>
-    <t>徐文瑞</t>
   </si>
   <si>
     <t>对应backlog序号</t>
@@ -238,6 +235,10 @@
   </si>
   <si>
     <t>房态图控制天数算法更新</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>安栋</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -630,6 +631,18 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -641,18 +654,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1036,7 +1037,7 @@
   <dimension ref="A1:V179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1069,11 +1070,11 @@
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="48" t="s">
         <v>50</v>
-      </c>
-      <c r="C1" s="52" t="s">
-        <v>51</v>
       </c>
       <c r="D1" s="28" t="s">
         <v>1</v>
@@ -1135,16 +1136,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="54" t="s">
-        <v>54</v>
+      <c r="D2" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>53</v>
       </c>
       <c r="F2" s="31" t="s">
         <v>19</v>
@@ -1163,7 +1164,7 @@
       </c>
       <c r="K2" s="31"/>
       <c r="L2" s="46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M2" s="31" t="s">
         <v>21</v>
@@ -1178,12 +1179,12 @@
         <v>42670</v>
       </c>
       <c r="Q2" s="39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R2" s="36"/>
       <c r="S2" s="36"/>
       <c r="T2" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U2" s="42"/>
       <c r="V2" s="43"/>
@@ -1193,19 +1194,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="50" t="s">
         <v>55</v>
-      </c>
-      <c r="E3" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="54" t="s">
-        <v>56</v>
       </c>
       <c r="G3" s="31" t="s">
         <v>20</v>
@@ -1221,7 +1222,7 @@
       </c>
       <c r="K3" s="31"/>
       <c r="L3" s="39" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="M3" s="31" t="s">
         <v>21</v>
@@ -1236,12 +1237,12 @@
         <v>42670</v>
       </c>
       <c r="Q3" s="39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R3" s="36"/>
       <c r="S3" s="36"/>
       <c r="T3" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U3" s="44"/>
       <c r="V3" s="43"/>
@@ -1251,19 +1252,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="54" t="s">
+      <c r="D4" s="49" t="s">
         <v>56</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="50" t="s">
+        <v>55</v>
       </c>
       <c r="G4" s="31" t="s">
         <v>20</v>
@@ -1278,8 +1279,8 @@
         <v>42671</v>
       </c>
       <c r="K4" s="31"/>
-      <c r="L4" s="39" t="s">
-        <v>24</v>
+      <c r="L4" s="46" t="s">
+        <v>52</v>
       </c>
       <c r="M4" s="31" t="s">
         <v>21</v>
@@ -1294,12 +1295,12 @@
         <v>42670</v>
       </c>
       <c r="Q4" s="39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R4" s="36"/>
       <c r="S4" s="36"/>
       <c r="T4" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U4" s="44"/>
       <c r="V4" s="43"/>
@@ -1307,7 +1308,7 @@
     <row r="5" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="29"/>
       <c r="B5" s="29"/>
-      <c r="C5" s="51"/>
+      <c r="C5" s="47"/>
       <c r="D5" s="30"/>
       <c r="E5" s="31"/>
       <c r="F5" s="31"/>
@@ -1331,7 +1332,7 @@
     <row r="6" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="29"/>
       <c r="B6" s="29"/>
-      <c r="C6" s="51"/>
+      <c r="C6" s="47"/>
       <c r="D6" s="30"/>
       <c r="E6" s="31"/>
       <c r="F6" s="31"/>
@@ -1355,7 +1356,7 @@
     <row r="7" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
-      <c r="C7" s="51"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="30"/>
       <c r="E7" s="31"/>
       <c r="F7" s="31"/>
@@ -1379,7 +1380,7 @@
     <row r="8" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
-      <c r="C8" s="51"/>
+      <c r="C8" s="47"/>
       <c r="D8" s="30"/>
       <c r="E8" s="31"/>
       <c r="F8" s="31"/>
@@ -1403,7 +1404,7 @@
     <row r="9" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="29"/>
       <c r="B9" s="29"/>
-      <c r="C9" s="51"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="30"/>
       <c r="E9" s="31"/>
       <c r="F9" s="31"/>
@@ -1427,7 +1428,7 @@
     <row r="10" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="29"/>
       <c r="B10" s="29"/>
-      <c r="C10" s="51"/>
+      <c r="C10" s="47"/>
       <c r="D10" s="30"/>
       <c r="E10" s="31"/>
       <c r="F10" s="31"/>
@@ -1451,7 +1452,7 @@
     <row r="11" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
-      <c r="C11" s="51"/>
+      <c r="C11" s="47"/>
       <c r="D11" s="30"/>
       <c r="E11" s="31"/>
       <c r="F11" s="31"/>
@@ -1475,7 +1476,7 @@
     <row r="12" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
-      <c r="C12" s="51"/>
+      <c r="C12" s="47"/>
       <c r="D12" s="30"/>
       <c r="E12" s="31"/>
       <c r="F12" s="31"/>
@@ -1499,7 +1500,7 @@
     <row r="13" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
-      <c r="C13" s="51"/>
+      <c r="C13" s="47"/>
       <c r="D13" s="30"/>
       <c r="E13" s="31"/>
       <c r="F13" s="31"/>
@@ -1523,7 +1524,7 @@
     <row r="14" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="29"/>
       <c r="B14" s="29"/>
-      <c r="C14" s="51"/>
+      <c r="C14" s="47"/>
       <c r="D14" s="30"/>
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
@@ -1547,7 +1548,7 @@
     <row r="15" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="29"/>
       <c r="B15" s="29"/>
-      <c r="C15" s="51"/>
+      <c r="C15" s="47"/>
       <c r="D15" s="30"/>
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
@@ -1571,7 +1572,7 @@
     <row r="16" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="29"/>
       <c r="B16" s="29"/>
-      <c r="C16" s="51"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="30"/>
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
@@ -1595,7 +1596,7 @@
     <row r="17" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="29"/>
       <c r="B17" s="29"/>
-      <c r="C17" s="51"/>
+      <c r="C17" s="47"/>
       <c r="D17" s="30"/>
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
@@ -1619,7 +1620,7 @@
     <row r="18" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="29"/>
       <c r="B18" s="29"/>
-      <c r="C18" s="51"/>
+      <c r="C18" s="47"/>
       <c r="D18" s="30"/>
       <c r="E18" s="31"/>
       <c r="F18" s="31"/>
@@ -1643,7 +1644,7 @@
     <row r="19" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="29"/>
       <c r="B19" s="29"/>
-      <c r="C19" s="51"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="30"/>
       <c r="E19" s="31"/>
       <c r="F19" s="31"/>
@@ -5272,28 +5273,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>31</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -6332,73 +6333,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="48"/>
+      <c r="A1" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="50"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="M3" s="15" t="s">
         <v>18</v>

--- a/VersionRecords/Version 5.0.4.1 20161027/版本Bug和特性计划及评审表v5.0.4.1_马丁组.xlsx
+++ b/VersionRecords/Version 5.0.4.1 20161027/版本Bug和特性计划及评审表v5.0.4.1_马丁组.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
   <si>
     <t>No</t>
   </si>
@@ -239,6 +239,14 @@
   </si>
   <si>
     <t>安栋</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Feature</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Feature</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1037,7 +1045,7 @@
   <dimension ref="A1:V179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1145,7 +1153,7 @@
         <v>51</v>
       </c>
       <c r="E2" s="50" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F2" s="31" t="s">
         <v>19</v>
@@ -1261,7 +1269,7 @@
         <v>56</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F4" s="50" t="s">
         <v>55</v>

--- a/VersionRecords/Version 5.0.4.1 20161027/版本Bug和特性计划及评审表v5.0.4.1_马丁组.xlsx
+++ b/VersionRecords/Version 5.0.4.1 20161027/版本Bug和特性计划及评审表v5.0.4.1_马丁组.xlsx
@@ -91,7 +91,7 @@
     <t>紧急</t>
   </si>
   <si>
-    <t>房东PC集中式房源录入楼层号分离</t>
+    <t>集中式房源录入楼层号分离</t>
   </si>
   <si>
     <t>New Feature</t>
@@ -227,10 +227,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -281,20 +281,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,15 +315,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,7 +346,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,21 +354,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,21 +373,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -414,14 +392,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -430,14 +408,36 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="36">
@@ -461,13 +461,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,13 +503,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,13 +539,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,127 +641,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,6 +746,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -757,41 +766,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -812,6 +786,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -822,6 +811,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -848,162 +848,162 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1582,7 +1582,7 @@
   <dimension ref="A1:V179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7104,11 +7104,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I3 I5:I1048576 JE$1:JE$1048576 TA$1:TA$1048576 ACW$1:ACW$1048576 AMS$1:AMS$1048576 AWO$1:AWO$1048576 BGK$1:BGK$1048576 BQG$1:BQG$1048576 CAC$1:CAC$1048576 CJY$1:CJY$1048576 CTU$1:CTU$1048576 DDQ$1:DDQ$1048576 DNM$1:DNM$1048576 DXI$1:DXI$1048576 EHE$1:EHE$1048576 ERA$1:ERA$1048576 FAW$1:FAW$1048576 FKS$1:FKS$1048576 FUO$1:FUO$1048576 GEK$1:GEK$1048576 GOG$1:GOG$1048576 GYC$1:GYC$1048576 HHY$1:HHY$1048576 HRU$1:HRU$1048576 IBQ$1:IBQ$1048576 ILM$1:ILM$1048576 IVI$1:IVI$1048576 JFE$1:JFE$1048576 JPA$1:JPA$1048576 JYW$1:JYW$1048576 KIS$1:KIS$1048576 KSO$1:KSO$1048576 LCK$1:LCK$1048576 LMG$1:LMG$1048576 LWC$1:LWC$1048576 MFY$1:MFY$1048576 MPU$1:MPU$1048576 MZQ$1:MZQ$1048576 NJM$1:NJM$1048576 NTI$1:NTI$1048576 ODE$1:ODE$1048576 ONA$1:ONA$1048576 OWW$1:OWW$1048576 PGS$1:PGS$1048576 PQO$1:PQO$1048576 QAK$1:QAK$1048576 QKG$1:QKG$1048576 QUC$1:QUC$1048576 RDY$1:RDY$1048576 RNU$1:RNU$1048576 RXQ$1:RXQ$1048576 SHM$1:SHM$1048576 SRI$1:SRI$1048576 TBE$1:TBE$1048576 TLA$1:TLA$1048576 TUW$1:TUW$1048576 UES$1:UES$1048576 UOO$1:UOO$1048576 UYK$1:UYK$1048576 VIG$1:VIG$1048576 VSC$1:VSC$1048576 WBY$1:WBY$1048576 WLU$1:WLU$1048576 WVQ$1:WVQ$1048576">
+      <formula1>"生产环境,测试环境,开发环境"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F13 F65537:F65549 F131073:F131085 F196609:F196621 F262145:F262157 F327681:F327693 F393217:F393229 F458753:F458765 F524289:F524301 F589825:F589837 F655361:F655373 F720897:F720909 F786433:F786445 F851969:F851981 F917505:F917517 F983041:F983053 JB4:JB13 JB65537:JB65549 JB131073:JB131085 JB196609:JB196621 JB262145:JB262157 JB327681:JB327693 JB393217:JB393229 JB458753:JB458765 JB524289:JB524301 JB589825:JB589837 JB655361:JB655373 JB720897:JB720909 JB786433:JB786445 JB851969:JB851981 JB917505:JB917517 JB983041:JB983053 SX4:SX13 SX65537:SX65549 SX131073:SX131085 SX196609:SX196621 SX262145:SX262157 SX327681:SX327693 SX393217:SX393229 SX458753:SX458765 SX524289:SX524301 SX589825:SX589837 SX655361:SX655373 SX720897:SX720909 SX786433:SX786445 SX851969:SX851981 SX917505:SX917517 SX983041:SX983053 ACT4:ACT13 ACT65537:ACT65549 ACT131073:ACT131085 ACT196609:ACT196621 ACT262145:ACT262157 ACT327681:ACT327693 ACT393217:ACT393229 ACT458753:ACT458765 ACT524289:ACT524301 ACT589825:ACT589837 ACT655361:ACT655373 ACT720897:ACT720909 ACT786433:ACT786445 ACT851969:ACT851981 ACT917505:ACT917517 ACT983041:ACT983053 AMP4:AMP13 AMP65537:AMP65549 AMP131073:AMP131085 AMP196609:AMP196621 AMP262145:AMP262157 AMP327681:AMP327693 AMP393217:AMP393229 AMP458753:AMP458765 AMP524289:AMP524301 AMP589825:AMP589837 AMP655361:AMP655373 AMP720897:AMP720909 AMP786433:AMP786445 AMP851969:AMP851981 AMP917505:AMP917517 AMP983041:AMP983053 AWL4:AWL13 AWL65537:AWL65549 AWL131073:AWL131085 AWL196609:AWL196621 AWL262145:AWL262157 AWL327681:AWL327693 AWL393217:AWL393229 AWL458753:AWL458765 AWL524289:AWL524301 AWL589825:AWL589837 AWL655361:AWL655373 AWL720897:AWL720909 AWL786433:AWL786445 AWL851969:AWL851981 AWL917505:AWL917517 AWL983041:AWL983053 BGH4:BGH13 BGH65537:BGH65549 BGH131073:BGH131085 BGH196609:BGH196621 BGH262145:BGH262157 BGH327681:BGH327693 BGH393217:BGH393229 BGH458753:BGH458765 BGH524289:BGH524301 BGH589825:BGH589837 BGH655361:BGH655373 BGH720897:BGH720909 BGH786433:BGH786445 BGH851969:BGH851981 BGH917505:BGH917517 BGH983041:BGH983053 BQD4:BQD13 BQD65537:BQD65549 BQD131073:BQD131085 BQD196609:BQD196621 BQD262145:BQD262157 BQD327681:BQD327693 BQD393217:BQD393229 BQD458753:BQD458765 BQD524289:BQD524301 BQD589825:BQD589837 BQD655361:BQD655373 BQD720897:BQD720909 BQD786433:BQD786445 BQD851969:BQD851981 BQD917505:BQD917517 BQD983041:BQD983053 BZZ4:BZZ13 BZZ65537:BZZ65549 BZZ131073:BZZ131085 BZZ196609:BZZ196621 BZZ262145:BZZ262157 BZZ327681:BZZ327693 BZZ393217:BZZ393229 BZZ458753:BZZ458765 BZZ524289:BZZ524301 BZZ589825:BZZ589837 BZZ655361:BZZ655373 BZZ720897:BZZ720909 BZZ786433:BZZ786445 BZZ851969:BZZ851981 BZZ917505:BZZ917517 BZZ983041:BZZ983053 CJV4:CJV13 CJV65537:CJV65549 CJV131073:CJV131085 CJV196609:CJV196621 CJV262145:CJV262157 CJV327681:CJV327693 CJV393217:CJV393229 CJV458753:CJV458765 CJV524289:CJV524301 CJV589825:CJV589837 CJV655361:CJV655373 CJV720897:CJV720909 CJV786433:CJV786445 CJV851969:CJV851981 CJV917505:CJV917517 CJV983041:CJV983053 CTR4:CTR13 CTR65537:CTR65549 CTR131073:CTR131085 CTR196609:CTR196621 CTR262145:CTR262157 CTR327681:CTR327693 CTR393217:CTR393229 CTR458753:CTR458765 CTR524289:CTR524301 CTR589825:CTR589837 CTR655361:CTR655373 CTR720897:CTR720909 CTR786433:CTR786445 CTR851969:CTR851981 CTR917505:CTR917517 CTR983041:CTR983053 DDN4:DDN13 DDN65537:DDN65549 DDN131073:DDN131085 DDN196609:DDN196621 DDN262145:DDN262157 DDN327681:DDN327693 DDN393217:DDN393229 DDN458753:DDN458765 DDN524289:DDN524301 DDN589825:DDN589837 DDN655361:DDN655373 DDN720897:DDN720909 DDN786433:DDN786445 DDN851969:DDN851981 DDN917505:DDN917517 DDN983041:DDN983053 DNJ4:DNJ13 DNJ65537:DNJ65549 DNJ131073:DNJ131085 DNJ196609:DNJ196621 DNJ262145:DNJ262157 DNJ327681:DNJ327693 DNJ393217:DNJ393229 DNJ458753:DNJ458765 DNJ524289:DNJ524301 DNJ589825:DNJ589837 DNJ655361:DNJ655373 DNJ720897:DNJ720909 DNJ786433:DNJ786445 DNJ851969:DNJ851981 DNJ917505:DNJ917517 DNJ983041:DNJ983053 DXF4:DXF13 DXF65537:DXF65549 DXF131073:DXF131085 DXF196609:DXF196621 DXF262145:DXF262157 DXF327681:DXF327693 DXF393217:DXF393229 DXF458753:DXF458765 DXF524289:DXF524301 DXF589825:DXF589837 DXF655361:DXF655373 DXF720897:DXF720909 DXF786433:DXF786445 DXF851969:DXF851981 DXF917505:DXF917517 DXF983041:DXF983053 EHB4:EHB13 EHB65537:EHB65549 EHB131073:EHB131085 EHB196609:EHB196621 EHB262145:EHB262157 EHB327681:EHB327693 EHB393217:EHB393229 EHB458753:EHB458765 EHB524289:EHB524301 EHB589825:EHB589837 EHB655361:EHB655373 EHB720897:EHB720909 EHB786433:EHB786445 EHB851969:EHB851981 EHB917505:EHB917517 EHB983041:EHB983053 EQX4:EQX13 EQX65537:EQX65549 EQX131073:EQX131085 EQX196609:EQX196621 EQX262145:EQX262157 EQX327681:EQX327693 EQX393217:EQX393229 EQX458753:EQX458765 EQX524289:EQX524301 EQX589825:EQX589837 EQX655361:EQX655373 EQX720897:EQX720909 EQX786433:EQX786445 EQX851969:EQX851981 EQX917505:EQX917517 EQX983041:EQX983053 FAT4:FAT13 FAT65537:FAT65549 FAT131073:FAT131085 FAT196609:FAT196621 FAT262145:FAT262157 FAT327681:FAT327693 FAT393217:FAT393229 FAT458753:FAT458765 FAT524289:FAT524301 FAT589825:FAT589837 FAT655361:FAT655373 FAT720897:FAT720909 FAT786433:FAT786445 FAT851969:FAT851981 FAT917505:FAT917517 FAT983041:FAT983053 FKP4:FKP13 FKP65537:FKP65549 FKP131073:FKP131085 FKP196609:FKP196621 FKP262145:FKP262157 FKP327681:FKP327693 FKP393217:FKP393229 FKP458753:FKP458765 FKP524289:FKP524301 FKP589825:FKP589837 FKP655361:FKP655373 FKP720897:FKP720909 FKP786433:FKP786445 FKP851969:FKP851981 FKP917505:FKP917517 FKP983041:FKP983053 FUL4:FUL13 FUL65537:FUL65549 FUL131073:FUL131085 FUL196609:FUL196621 FUL262145:FUL262157 FUL327681:FUL327693 FUL393217:FUL393229 FUL458753:FUL458765 FUL524289:FUL524301 FUL589825:FUL589837 FUL655361:FUL655373 FUL720897:FUL720909 FUL786433:FUL786445 FUL851969:FUL851981 FUL917505:FUL917517 FUL983041:FUL983053 GEH4:GEH13 GEH65537:GEH65549 GEH131073:GEH131085 GEH196609:GEH196621 GEH262145:GEH262157 GEH327681:GEH327693 GEH393217:GEH393229 GEH458753:GEH458765 GEH524289:GEH524301 GEH589825:GEH589837 GEH655361:GEH655373 GEH720897:GEH720909 GEH786433:GEH786445 GEH851969:GEH851981 GEH917505:GEH917517 GEH983041:GEH983053 GOD4:GOD13 GOD65537:GOD65549 GOD131073:GOD131085 GOD196609:GOD196621 GOD262145:GOD262157 GOD327681:GOD327693 GOD393217:GOD393229 GOD458753:GOD458765 GOD524289:GOD524301 GOD589825:GOD589837 GOD655361:GOD655373 GOD720897:GOD720909 GOD786433:GOD786445 GOD851969:GOD851981 GOD917505:GOD917517 GOD983041:GOD983053 GXZ4:GXZ13 GXZ65537:GXZ65549 GXZ131073:GXZ131085 GXZ196609:GXZ196621 GXZ262145:GXZ262157 GXZ327681:GXZ327693 GXZ393217:GXZ393229 GXZ458753:GXZ458765 GXZ524289:GXZ524301 GXZ589825:GXZ589837 GXZ655361:GXZ655373 GXZ720897:GXZ720909 GXZ786433:GXZ786445 GXZ851969:GXZ851981 GXZ917505:GXZ917517 GXZ983041:GXZ983053 HHV4:HHV13 HHV65537:HHV65549 HHV131073:HHV131085 HHV196609:HHV196621 HHV262145:HHV262157 HHV327681:HHV327693 HHV393217:HHV393229 HHV458753:HHV458765 HHV524289:HHV524301 HHV589825:HHV589837 HHV655361:HHV655373 HHV720897:HHV720909 HHV786433:HHV786445 HHV851969:HHV851981 HHV917505:HHV917517 HHV983041:HHV983053 HRR4:HRR13 HRR65537:HRR65549 HRR131073:HRR131085 HRR196609:HRR196621 HRR262145:HRR262157 HRR327681:HRR327693 HRR393217:HRR393229 HRR458753:HRR458765 HRR524289:HRR524301 HRR589825:HRR589837 HRR655361:HRR655373 HRR720897:HRR720909 HRR786433:HRR786445 HRR851969:HRR851981 HRR917505:HRR917517 HRR983041:HRR983053 IBN4:IBN13 IBN65537:IBN65549 IBN131073:IBN131085 IBN196609:IBN196621 IBN262145:IBN262157 IBN327681:IBN327693 IBN393217:IBN393229 IBN458753:IBN458765 IBN524289:IBN524301 IBN589825:IBN589837 IBN655361:IBN655373 IBN720897:IBN720909 IBN786433:IBN786445 IBN851969:IBN851981 IBN917505:IBN917517 IBN983041:IBN983053 ILJ4:ILJ13 ILJ65537:ILJ65549 ILJ131073:ILJ131085 ILJ196609:ILJ196621 ILJ262145:ILJ262157 ILJ327681:ILJ327693 ILJ393217:ILJ393229 ILJ458753:ILJ458765 ILJ524289:ILJ524301 ILJ589825:ILJ589837 ILJ655361:ILJ655373 ILJ720897:ILJ720909 ILJ786433:ILJ786445 ILJ851969:ILJ851981 ILJ917505:ILJ917517 ILJ983041:ILJ983053 IVF4:IVF13 IVF65537:IVF65549 IVF131073:IVF131085 IVF196609:IVF196621 IVF262145:IVF262157 IVF327681:IVF327693 IVF393217:IVF393229 IVF458753:IVF458765 IVF524289:IVF524301 IVF589825:IVF589837 IVF655361:IVF655373 IVF720897:IVF720909 IVF786433:IVF786445 IVF851969:IVF851981 IVF917505:IVF917517 IVF983041:IVF983053 JFB4:JFB13 JFB65537:JFB65549 JFB131073:JFB131085 JFB196609:JFB196621 JFB262145:JFB262157 JFB327681:JFB327693 JFB393217:JFB393229 JFB458753:JFB458765 JFB524289:JFB524301 JFB589825:JFB589837 JFB655361:JFB655373 JFB720897:JFB720909 JFB786433:JFB786445 JFB851969:JFB851981 JFB917505:JFB917517 JFB983041:JFB983053 JOX4:JOX13 JOX65537:JOX65549 JOX131073:JOX131085 JOX196609:JOX196621 JOX262145:JOX262157 JOX327681:JOX327693 JOX393217:JOX393229 JOX458753:JOX458765 JOX524289:JOX524301 JOX589825:JOX589837 JOX655361:JOX655373 JOX720897:JOX720909 JOX786433:JOX786445 JOX851969:JOX851981 JOX917505:JOX917517 JOX983041:JOX983053 JYT4:JYT13 JYT65537:JYT65549 JYT131073:JYT131085 JYT196609:JYT196621 JYT262145:JYT262157 JYT327681:JYT327693 JYT393217:JYT393229 JYT458753:JYT458765 JYT524289:JYT524301 JYT589825:JYT589837 JYT655361:JYT655373 JYT720897:JYT720909 JYT786433:JYT786445 JYT851969:JYT851981 JYT917505:JYT917517 JYT983041:JYT983053 KIP4:KIP13 KIP65537:KIP65549 KIP131073:KIP131085 KIP196609:KIP196621 KIP262145:KIP262157 KIP327681:KIP327693 KIP393217:KIP393229 KIP458753:KIP458765 KIP524289:KIP524301 KIP589825:KIP589837 KIP655361:KIP655373 KIP720897:KIP720909 KIP786433:KIP786445 KIP851969:KIP851981 KIP917505:KIP917517 KIP983041:KIP983053 KSL4:KSL13 KSL65537:KSL65549 KSL131073:KSL131085 KSL196609:KSL196621 KSL262145:KSL262157 KSL327681:KSL327693 KSL393217:KSL393229 KSL458753:KSL458765 KSL524289:KSL524301 KSL589825:KSL589837 KSL655361:KSL655373 KSL720897:KSL720909 KSL786433:KSL786445 KSL851969:KSL851981 KSL917505:KSL917517 KSL983041:KSL983053 LCH4:LCH13 LCH65537:LCH65549 LCH131073:LCH131085 LCH196609:LCH196621 LCH262145:LCH262157 LCH327681:LCH327693 LCH393217:LCH393229 LCH458753:LCH458765 LCH524289:LCH524301 LCH589825:LCH589837 LCH655361:LCH655373 LCH720897:LCH720909 LCH786433:LCH786445 LCH851969:LCH851981 LCH917505:LCH917517 LCH983041:LCH983053 LMD4:LMD13 LMD65537:LMD65549 LMD131073:LMD131085 LMD196609:LMD196621 LMD262145:LMD262157 LMD327681:LMD327693 LMD393217:LMD393229 LMD458753:LMD458765 LMD524289:LMD524301 LMD589825:LMD589837 LMD655361:LMD655373 LMD720897:LMD720909 LMD786433:LMD786445 LMD851969:LMD851981 LMD917505:LMD917517 LMD983041:LMD983053 LVZ4:LVZ13 LVZ65537:LVZ65549 LVZ131073:LVZ131085 LVZ196609:LVZ196621 LVZ262145:LVZ262157 LVZ327681:LVZ327693 LVZ393217:LVZ393229 LVZ458753:LVZ458765 LVZ524289:LVZ524301 LVZ589825:LVZ589837 LVZ655361:LVZ655373 LVZ720897:LVZ720909 LVZ786433:LVZ786445 LVZ851969:LVZ851981 LVZ917505:LVZ917517 LVZ983041:LVZ983053 MFV4:MFV13 MFV65537:MFV65549 MFV131073:MFV131085 MFV196609:MFV196621 MFV262145:MFV262157 MFV327681:MFV327693 MFV393217:MFV393229 MFV458753:MFV458765 MFV524289:MFV524301 MFV589825:MFV589837 MFV655361:MFV655373 MFV720897:MFV720909 MFV786433:MFV786445 MFV851969:MFV851981 MFV917505:MFV917517 MFV983041:MFV983053 MPR4:MPR13 MPR65537:MPR65549 MPR131073:MPR131085 MPR196609:MPR196621 MPR262145:MPR262157 MPR327681:MPR327693 MPR393217:MPR393229 MPR458753:MPR458765 MPR524289:MPR524301 MPR589825:MPR589837 MPR655361:MPR655373 MPR720897:MPR720909 MPR786433:MPR786445 MPR851969:MPR851981 MPR917505:MPR917517 MPR983041:MPR983053 MZN4:MZN13 MZN65537:MZN65549 MZN131073:MZN131085 MZN196609:MZN196621 MZN262145:MZN262157 MZN327681:MZN327693 MZN393217:MZN393229 MZN458753:MZN458765 MZN524289:MZN524301 MZN589825:MZN589837 MZN655361:MZN655373 MZN720897:MZN720909 MZN786433:MZN786445 MZN851969:MZN851981 MZN917505:MZN917517 MZN983041:MZN983053 NJJ4:NJJ13 NJJ65537:NJJ65549 NJJ131073:NJJ131085 NJJ196609:NJJ196621 NJJ262145:NJJ262157 NJJ327681:NJJ327693 NJJ393217:NJJ393229 NJJ458753:NJJ458765 NJJ524289:NJJ524301 NJJ589825:NJJ589837 NJJ655361:NJJ655373 NJJ720897:NJJ720909 NJJ786433:NJJ786445 NJJ851969:NJJ851981 NJJ917505:NJJ917517 NJJ983041:NJJ983053 NTF4:NTF13 NTF65537:NTF65549 NTF131073:NTF131085 NTF196609:NTF196621 NTF262145:NTF262157 NTF327681:NTF327693 NTF393217:NTF393229 NTF458753:NTF458765 NTF524289:NTF524301 NTF589825:NTF589837 NTF655361:NTF655373 NTF720897:NTF720909 NTF786433:NTF786445 NTF851969:NTF851981 NTF917505:NTF917517 NTF983041:NTF983053 ODB4:ODB13 ODB65537:ODB65549 ODB131073:ODB131085 ODB196609:ODB196621 ODB262145:ODB262157 ODB327681:ODB327693 ODB393217:ODB393229 ODB458753:ODB458765 ODB524289:ODB524301 ODB589825:ODB589837 ODB655361:ODB655373 ODB720897:ODB720909 ODB786433:ODB786445 ODB851969:ODB851981 ODB917505:ODB917517 ODB983041:ODB983053 OMX4:OMX13 OMX65537:OMX65549 OMX131073:OMX131085 OMX196609:OMX196621 OMX262145:OMX262157 OMX327681:OMX327693 OMX393217:OMX393229 OMX458753:OMX458765 OMX524289:OMX524301 OMX589825:OMX589837 OMX655361:OMX655373 OMX720897:OMX720909 OMX786433:OMX786445 OMX851969:OMX851981 OMX917505:OMX917517 OMX983041:OMX983053 OWT4:OWT13 OWT65537:OWT65549 OWT131073:OWT131085 OWT196609:OWT196621 OWT262145:OWT262157 OWT327681:OWT327693 OWT393217:OWT393229 OWT458753:OWT458765 OWT524289:OWT524301 OWT589825:OWT589837 OWT655361:OWT655373 OWT720897:OWT720909 OWT786433:OWT786445 OWT851969:OWT851981 OWT917505:OWT917517 OWT983041:OWT983053 PGP4:PGP13 PGP65537:PGP65549 PGP131073:PGP131085 PGP196609:PGP196621 PGP262145:PGP262157 PGP327681:PGP327693 PGP393217:PGP393229 PGP458753:PGP458765 PGP524289:PGP524301 PGP589825:PGP589837 PGP655361:PGP655373 PGP720897:PGP720909 PGP786433:PGP786445 PGP851969:PGP851981 PGP917505:PGP917517 PGP983041:PGP983053 PQL4:PQL13 PQL65537:PQL65549 PQL131073:PQL131085 PQL196609:PQL196621 PQL262145:PQL262157 PQL327681:PQL327693 PQL393217:PQL393229 PQL458753:PQL458765 PQL524289:PQL524301 PQL589825:PQL589837 PQL655361:PQL655373 PQL720897:PQL720909 PQL786433:PQL786445 PQL851969:PQL851981 PQL917505:PQL917517 PQL983041:PQL983053 QAH4:QAH13 QAH65537:QAH65549 QAH131073:QAH131085 QAH196609:QAH196621 QAH262145:QAH262157 QAH327681:QAH327693 QAH393217:QAH393229 QAH458753:QAH458765 QAH524289:QAH524301 QAH589825:QAH589837 QAH655361:QAH655373 QAH720897:QAH720909 QAH786433:QAH786445 QAH851969:QAH851981 QAH917505:QAH917517 QAH983041:QAH983053 QKD4:QKD13 QKD65537:QKD65549 QKD131073:QKD131085 QKD196609:QKD196621 QKD262145:QKD262157 QKD327681:QKD327693 QKD393217:QKD393229 QKD458753:QKD458765 QKD524289:QKD524301 QKD589825:QKD589837 QKD655361:QKD655373 QKD720897:QKD720909 QKD786433:QKD786445 QKD851969:QKD851981 QKD917505:QKD917517 QKD983041:QKD983053 QTZ4:QTZ13 QTZ65537:QTZ65549 QTZ131073:QTZ131085 QTZ196609:QTZ196621 QTZ262145:QTZ262157 QTZ327681:QTZ327693 QTZ393217:QTZ393229 QTZ458753:QTZ458765 QTZ524289:QTZ524301 QTZ589825:QTZ589837 QTZ655361:QTZ655373 QTZ720897:QTZ720909 QTZ786433:QTZ786445 QTZ851969:QTZ851981 QTZ917505:QTZ917517 QTZ983041:QTZ983053 RDV4:RDV13 RDV65537:RDV65549 RDV131073:RDV131085 RDV196609:RDV196621 RDV262145:RDV262157 RDV327681:RDV327693 RDV393217:RDV393229 RDV458753:RDV458765 RDV524289:RDV524301 RDV589825:RDV589837 RDV655361:RDV655373 RDV720897:RDV720909 RDV786433:RDV786445 RDV851969:RDV851981 RDV917505:RDV917517 RDV983041:RDV983053 RNR4:RNR13 RNR65537:RNR65549 RNR131073:RNR131085 RNR196609:RNR196621 RNR262145:RNR262157 RNR327681:RNR327693 RNR393217:RNR393229 RNR458753:RNR458765 RNR524289:RNR524301 RNR589825:RNR589837 RNR655361:RNR655373 RNR720897:RNR720909 RNR786433:RNR786445 RNR851969:RNR851981 RNR917505:RNR917517 RNR983041:RNR983053 RXN4:RXN13 RXN65537:RXN65549 RXN131073:RXN131085 RXN196609:RXN196621 RXN262145:RXN262157 RXN327681:RXN327693 RXN393217:RXN393229 RXN458753:RXN458765 RXN524289:RXN524301 RXN589825:RXN589837 RXN655361:RXN655373 RXN720897:RXN720909 RXN786433:RXN786445 RXN851969:RXN851981 RXN917505:RXN917517 RXN983041:RXN983053 SHJ4:SHJ13 SHJ65537:SHJ65549 SHJ131073:SHJ131085 SHJ196609:SHJ196621 SHJ262145:SHJ262157 SHJ327681:SHJ327693 SHJ393217:SHJ393229 SHJ458753:SHJ458765 SHJ524289:SHJ524301 SHJ589825:SHJ589837 SHJ655361:SHJ655373 SHJ720897:SHJ720909 SHJ786433:SHJ786445 SHJ851969:SHJ851981 SHJ917505:SHJ917517 SHJ983041:SHJ983053 SRF4:SRF13 SRF65537:SRF65549 SRF131073:SRF131085 SRF196609:SRF196621 SRF262145:SRF262157 SRF327681:SRF327693 SRF393217:SRF393229 SRF458753:SRF458765 SRF524289:SRF524301 SRF589825:SRF589837 SRF655361:SRF655373 SRF720897:SRF720909 SRF786433:SRF786445 SRF851969:SRF851981 SRF917505:SRF917517 SRF983041:SRF983053 TBB4:TBB13 TBB65537:TBB65549 TBB131073:TBB131085 TBB196609:TBB196621 TBB262145:TBB262157 TBB327681:TBB327693 TBB393217:TBB393229 TBB458753:TBB458765 TBB524289:TBB524301 TBB589825:TBB589837 TBB655361:TBB655373 TBB720897:TBB720909 TBB786433:TBB786445 TBB851969:TBB851981 TBB917505:TBB917517 TBB983041:TBB983053 TKX4:TKX13 TKX65537:TKX65549 TKX131073:TKX131085 TKX196609:TKX196621 TKX262145:TKX262157 TKX327681:TKX327693 TKX393217:TKX393229 TKX458753:TKX458765 TKX524289:TKX524301 TKX589825:TKX589837 TKX655361:TKX655373 TKX720897:TKX720909 TKX786433:TKX786445 TKX851969:TKX851981 TKX917505:TKX917517 TKX983041:TKX983053 TUT4:TUT13 TUT65537:TUT65549 TUT131073:TUT131085 TUT196609:TUT196621 TUT262145:TUT262157 TUT327681:TUT327693 TUT393217:TUT393229 TUT458753:TUT458765 TUT524289:TUT524301 TUT589825:TUT589837 TUT655361:TUT655373 TUT720897:TUT720909 TUT786433:TUT786445 TUT851969:TUT851981 TUT917505:TUT917517 TUT983041:TUT983053 UEP4:UEP13 UEP65537:UEP65549 UEP131073:UEP131085 UEP196609:UEP196621 UEP262145:UEP262157 UEP327681:UEP327693 UEP393217:UEP393229 UEP458753:UEP458765 UEP524289:UEP524301 UEP589825:UEP589837 UEP655361:UEP655373 UEP720897:UEP720909 UEP786433:UEP786445 UEP851969:UEP851981 UEP917505:UEP917517 UEP983041:UEP983053 UOL4:UOL13 UOL65537:UOL65549 UOL131073:UOL131085 UOL196609:UOL196621 UOL262145:UOL262157 UOL327681:UOL327693 UOL393217:UOL393229 UOL458753:UOL458765 UOL524289:UOL524301 UOL589825:UOL589837 UOL655361:UOL655373 UOL720897:UOL720909 UOL786433:UOL786445 UOL851969:UOL851981 UOL917505:UOL917517 UOL983041:UOL983053 UYH4:UYH13 UYH65537:UYH65549 UYH131073:UYH131085 UYH196609:UYH196621 UYH262145:UYH262157 UYH327681:UYH327693 UYH393217:UYH393229 UYH458753:UYH458765 UYH524289:UYH524301 UYH589825:UYH589837 UYH655361:UYH655373 UYH720897:UYH720909 UYH786433:UYH786445 UYH851969:UYH851981 UYH917505:UYH917517 UYH983041:UYH983053 VID4:VID13 VID65537:VID65549 VID131073:VID131085 VID196609:VID196621 VID262145:VID262157 VID327681:VID327693 VID393217:VID393229 VID458753:VID458765 VID524289:VID524301 VID589825:VID589837 VID655361:VID655373 VID720897:VID720909 VID786433:VID786445 VID851969:VID851981 VID917505:VID917517 VID983041:VID983053 VRZ4:VRZ13 VRZ65537:VRZ65549 VRZ131073:VRZ131085 VRZ196609:VRZ196621 VRZ262145:VRZ262157 VRZ327681:VRZ327693 VRZ393217:VRZ393229 VRZ458753:VRZ458765 VRZ524289:VRZ524301 VRZ589825:VRZ589837 VRZ655361:VRZ655373 VRZ720897:VRZ720909 VRZ786433:VRZ786445 VRZ851969:VRZ851981 VRZ917505:VRZ917517 VRZ983041:VRZ983053 WBV4:WBV13 WBV65537:WBV65549 WBV131073:WBV131085 WBV196609:WBV196621 WBV262145:WBV262157 WBV327681:WBV327693 WBV393217:WBV393229 WBV458753:WBV458765 WBV524289:WBV524301 WBV589825:WBV589837 WBV655361:WBV655373 WBV720897:WBV720909 WBV786433:WBV786445 WBV851969:WBV851981 WBV917505:WBV917517 WBV983041:WBV983053 WLR4:WLR13 WLR65537:WLR65549 WLR131073:WLR131085 WLR196609:WLR196621 WLR262145:WLR262157 WLR327681:WLR327693 WLR393217:WLR393229 WLR458753:WLR458765 WLR524289:WLR524301 WLR589825:WLR589837 WLR655361:WLR655373 WLR720897:WLR720909 WLR786433:WLR786445 WLR851969:WLR851981 WLR917505:WLR917517 WLR983041:WLR983053 WVN4:WVN13 WVN65537:WVN65549 WVN131073:WVN131085 WVN196609:WVN196621 WVN262145:WVN262157 WVN327681:WVN327693 WVN393217:WVN393229 WVN458753:WVN458765 WVN524289:WVN524301 WVN589825:WVN589837 WVN655361:WVN655373 WVN720897:WVN720909 WVN786433:WVN786445 WVN851969:WVN851981 WVN917505:WVN917517 WVN983041:WVN983053">
       <formula1>"新增,修改,删除"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I3 I5:I1048576 JE$1:JE$1048576 TA$1:TA$1048576 ACW$1:ACW$1048576 AMS$1:AMS$1048576 AWO$1:AWO$1048576 BGK$1:BGK$1048576 BQG$1:BQG$1048576 CAC$1:CAC$1048576 CJY$1:CJY$1048576 CTU$1:CTU$1048576 DDQ$1:DDQ$1048576 DNM$1:DNM$1048576 DXI$1:DXI$1048576 EHE$1:EHE$1048576 ERA$1:ERA$1048576 FAW$1:FAW$1048576 FKS$1:FKS$1048576 FUO$1:FUO$1048576 GEK$1:GEK$1048576 GOG$1:GOG$1048576 GYC$1:GYC$1048576 HHY$1:HHY$1048576 HRU$1:HRU$1048576 IBQ$1:IBQ$1048576 ILM$1:ILM$1048576 IVI$1:IVI$1048576 JFE$1:JFE$1048576 JPA$1:JPA$1048576 JYW$1:JYW$1048576 KIS$1:KIS$1048576 KSO$1:KSO$1048576 LCK$1:LCK$1048576 LMG$1:LMG$1048576 LWC$1:LWC$1048576 MFY$1:MFY$1048576 MPU$1:MPU$1048576 MZQ$1:MZQ$1048576 NJM$1:NJM$1048576 NTI$1:NTI$1048576 ODE$1:ODE$1048576 ONA$1:ONA$1048576 OWW$1:OWW$1048576 PGS$1:PGS$1048576 PQO$1:PQO$1048576 QAK$1:QAK$1048576 QKG$1:QKG$1048576 QUC$1:QUC$1048576 RDY$1:RDY$1048576 RNU$1:RNU$1048576 RXQ$1:RXQ$1048576 SHM$1:SHM$1048576 SRI$1:SRI$1048576 TBE$1:TBE$1048576 TLA$1:TLA$1048576 TUW$1:TUW$1048576 UES$1:UES$1048576 UOO$1:UOO$1048576 UYK$1:UYK$1048576 VIG$1:VIG$1048576 VSC$1:VSC$1048576 WBY$1:WBY$1048576 WLU$1:WLU$1048576 WVQ$1:WVQ$1048576">
-      <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
